--- a/BackTest/2019-10-15 BackTest THETA.xlsx
+++ b/BackTest/2019-10-15 BackTest THETA.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>14</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L12" t="n">
         <v>107.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>15</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L13" t="n">
         <v>107.7</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>15</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>107.9</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>15</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
       <c r="L15" t="n">
         <v>107.9</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>15</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L16" t="n">
         <v>108.1</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>16</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>108.1</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>17</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>108</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>18</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L19" t="n">
         <v>108.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>18</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
       <c r="L20" t="n">
         <v>108.4</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-20</v>
+      </c>
       <c r="L21" t="n">
         <v>108.4</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>19</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>108.3</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="K23" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>108.3</v>
@@ -1466,7 +1488,7 @@
         <v>19</v>
       </c>
       <c r="K24" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>108.3</v>
@@ -1564,7 +1586,7 @@
         <v>20</v>
       </c>
       <c r="K26" t="n">
-        <v>6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L26" t="n">
         <v>108.2</v>
@@ -1613,7 +1635,7 @@
         <v>21</v>
       </c>
       <c r="K27" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L27" t="n">
         <v>107.9</v>
@@ -1662,7 +1684,7 @@
         <v>22</v>
       </c>
       <c r="K28" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L28" t="n">
         <v>107.8</v>
@@ -1711,7 +1733,7 @@
         <v>24</v>
       </c>
       <c r="K29" t="n">
-        <v>-20</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L29" t="n">
         <v>107.4</v>
@@ -1760,7 +1782,7 @@
         <v>24</v>
       </c>
       <c r="K30" t="n">
-        <v>-7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L30" t="n">
         <v>107</v>
